--- a/mbs-perturbation/chatty/welm/smote/chatty_welm_rbf_smote_results.xlsx
+++ b/mbs-perturbation/chatty/welm/smote/chatty_welm_rbf_smote_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5010845986984815</v>
+        <v>0.5012048192771085</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5184381778741866</v>
+        <v>0.5108433734939759</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4760869565217392</v>
+        <v>0.5228915662650603</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.491304347826087</v>
+        <v>0.5204819277108433</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5130434782608696</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4999915118362728</v>
+        <v>0.4999732262382865</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
